--- a/podatki/Velikonočna/velikonočna_klubi.xlsx
+++ b/podatki/Velikonočna/velikonočna_klubi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="velikonočna_klubi" sheetId="1" r:id="rId1"/>
@@ -4440,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F389"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10296,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" workbookViewId="0">
-      <selection activeCell="A98" sqref="A1:E1048576"/>
+    <sheetView topLeftCell="E98" workbookViewId="0">
+      <selection activeCell="E98" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,7 +10306,7 @@
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="165.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
